--- a/www/IndicatorsPerCountry/Turkmenistan_PoliticalParticipation_TerritorialRef_1991_2012_CCode_795.xlsx
+++ b/www/IndicatorsPerCountry/Turkmenistan_PoliticalParticipation_TerritorialRef_1991_2012_CCode_795.xlsx
@@ -75,13 +75,13 @@
     <t>Vanhanen, Tatu (2015). Political Participation. http://hdl.handle.net/10622/UOKWUF, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_UOKWUF.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_UOKWUF.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_UOKWUF.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_UOKWUF.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_UOKWUF.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_UOKWUF.bib</t>
   </si>
 </sst>
 </file>
